--- a/reports/monthly_report_202406.xlsx
+++ b/reports/monthly_report_202406.xlsx
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C4" s="38" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="E4" s="15" t="n"/>
@@ -2667,153 +2667,169 @@
     <row r="3" ht="13" customHeight="1" s="26" thickTop="1">
       <c r="A3" s="37" t="inlineStr">
         <is>
-          <t>Phenomenology and Practice</t>
+          <t>Technology, Information, and Society</t>
         </is>
       </c>
-      <c r="B3" s="37" t="n">
-        <v>214</v>
-      </c>
-      <c r="C3" s="37" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" s="37" t="n">
-        <v>1726</v>
-      </c>
-      <c r="E3" s="37" t="n">
-        <v>3204</v>
+      <c r="B3" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="37" t="inlineStr">
         <is>
-          <t>Alternative Francophone</t>
+          <t>Writing across the University of Alberta</t>
         </is>
       </c>
       <c r="B4" s="37" t="n">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="C4" s="37" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D4" s="37" t="n">
-        <v>1701</v>
+        <v>252</v>
       </c>
       <c r="E4" s="37" t="n">
-        <v>2037</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="37" t="inlineStr">
         <is>
-          <t>Annals of Social Studies Education Research for Teachers</t>
+          <t>Journal of the Academy of Forensic Nursing</t>
         </is>
       </c>
-      <c r="B5" s="37" t="n">
-        <v>55</v>
-      </c>
-      <c r="C5" s="37" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" s="37" t="n">
-        <v>553</v>
-      </c>
-      <c r="E5" s="37" t="n">
-        <v>1216</v>
+      <c r="B5" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="37" t="inlineStr">
         <is>
-          <t>Blue Jay</t>
+          <t>Art/Research International: A Transdisciplinary Journal</t>
         </is>
       </c>
       <c r="B6" s="37" t="n">
-        <v>5752</v>
+        <v>242</v>
       </c>
       <c r="C6" s="37" t="n">
-        <v>318</v>
+        <v>15</v>
       </c>
       <c r="D6" s="37" t="n">
-        <v>21674</v>
+        <v>4261</v>
       </c>
       <c r="E6" s="37" t="n">
-        <v>9113</v>
+        <v>3889</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="37" t="inlineStr">
         <is>
-          <t>Canadian Journal Of Emergency Nursing</t>
+          <t>Constitutional Forum / Forum constitutionnel</t>
         </is>
       </c>
       <c r="B7" s="37" t="n">
-        <v>132</v>
+        <v>517</v>
       </c>
       <c r="C7" s="37" t="n">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D7" s="37" t="n">
-        <v>2411</v>
+        <v>2865</v>
       </c>
       <c r="E7" s="37" t="n">
-        <v>2582</v>
+        <v>4005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="37" t="inlineStr">
         <is>
-          <t>Canadian Journal of Family and Youth</t>
+          <t>IASSIST Quarterly</t>
         </is>
       </c>
       <c r="B8" s="37" t="n">
-        <v>629</v>
+        <v>741</v>
       </c>
       <c r="C8" s="37" t="n">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="D8" s="37" t="n">
-        <v>5960</v>
+        <v>3648</v>
       </c>
       <c r="E8" s="37" t="n">
-        <v>18359</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="37" t="inlineStr">
         <is>
-          <t>Canadian Journal of Learning and Technology</t>
+          <t>Imaginations: Journal of Cross-Cultural Image Studies</t>
         </is>
       </c>
       <c r="B9" s="37" t="n">
-        <v>1042</v>
+        <v>316</v>
       </c>
       <c r="C9" s="37" t="n">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="D9" s="37" t="n">
-        <v>11885</v>
+        <v>3983</v>
       </c>
       <c r="E9" s="37" t="n">
-        <v>7471</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="37" t="inlineStr">
         <is>
-          <t>Canadian Journal of Nonprofit and Social Economy Research</t>
+          <t>International Journal for Leadership in Learning</t>
         </is>
       </c>
       <c r="B10" s="37" t="n">
-        <v>267</v>
+        <v>44</v>
       </c>
       <c r="C10" s="37" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D10" s="37" t="n">
-        <v>5914</v>
+        <v>804</v>
       </c>
       <c r="E10" s="37" t="n">
-        <v>3942</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
